--- a/MAE_Master_Course_Plan_AY241.xlsx
+++ b/MAE_Master_Course_Plan_AY241.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nps01.sharepoint.com/sites/MAECurricula/Shared Documents/General/CourseAndTeachingPlanning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianbingham/WorkingDirectory/proc_teachingschedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3642835-A174-E841-A171-DA3C04706DBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A04C02A-D9B5-3049-B74B-C0A805A08038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="500" windowWidth="49260" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38000" yWindow="3320" windowWidth="49260" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="533 10 quarter (Summer)" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="AY24" sheetId="26" r:id="rId2"/>
-    <sheet name="POs_AAs" sheetId="27" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'533 10 quarter (Summer)'!$A$1:$AI$19</definedName>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="338">
   <si>
     <t>533 COMBAT SYSTEMS SCIENCE AND ENGINEERING</t>
   </si>
@@ -2552,60 +2551,6 @@
       </rPr>
       <t>Pre: ME3150, ME3450, ME3521</t>
     </r>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>EdTech</t>
-  </si>
-  <si>
-    <t>MacDonald</t>
-  </si>
-  <si>
-    <t>Gordis</t>
-  </si>
-  <si>
-    <t>Lichtenwalter</t>
-  </si>
-  <si>
-    <t>Chapman</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
-    <t>Tellado</t>
-  </si>
-  <si>
-    <t>Smithtro</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Benson</t>
-  </si>
-  <si>
-    <t>Karpenko</t>
-  </si>
-  <si>
-    <t>Herman</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>118 (SNA)</t>
-  </si>
-  <si>
-    <t>Minik</t>
-  </si>
-  <si>
-    <t>Hahn</t>
   </si>
   <si>
     <t>ME3611
@@ -3339,7 +3284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3682,7 +3627,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3716,12 +3660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3764,97 +3702,199 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3862,108 +3902,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4333,23 +4271,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="M1" s="160" t="s">
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="M1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="162"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="154"/>
       <c r="R1" s="34"/>
       <c r="U1" s="22" t="s">
         <v>2</v>
@@ -4362,25 +4300,25 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="M2" s="164" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="M2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="166"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="158"/>
       <c r="R2" s="35"/>
-      <c r="U2" s="167" t="s">
+      <c r="U2" s="159" t="s">
         <v>7</v>
       </c>
       <c r="AF2" s="3" t="s">
@@ -4399,15 +4337,15 @@
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="M3" s="170" t="s">
+      <c r="M3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="172"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="164"/>
       <c r="R3" s="36"/>
-      <c r="U3" s="168"/>
+      <c r="U3" s="160"/>
     </row>
     <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="60"/>
@@ -4418,15 +4356,15 @@
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
-      <c r="M4" s="173" t="s">
+      <c r="M4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="175"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="167"/>
       <c r="R4" s="37"/>
-      <c r="U4" s="168"/>
+      <c r="U4" s="160"/>
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="60"/>
@@ -4435,15 +4373,15 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
-      <c r="M5" s="176" t="s">
+      <c r="M5" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="177"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="170"/>
       <c r="R5" s="53"/>
-      <c r="U5" s="169"/>
+      <c r="U5" s="161"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
@@ -4453,11 +4391,11 @@
       <c r="F6" s="60"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="180"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="173"/>
       <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4517,45 +4455,45 @@
         <v>18</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="177"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="154" t="s">
+      <c r="M9" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="157"/>
-      <c r="O9" s="158"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="177"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="154" t="s">
+      <c r="Q9" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="157"/>
-      <c r="S9" s="158"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="177"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="154" t="s">
+      <c r="U9" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="157"/>
-      <c r="W9" s="157"/>
-      <c r="X9" s="158"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="154" t="s">
+      <c r="Z9" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="157"/>
-      <c r="AB9" s="157"/>
-      <c r="AC9" s="155"/>
-      <c r="AE9" s="154" t="s">
+      <c r="AA9" s="176"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="175"/>
+      <c r="AE9" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="155"/>
-      <c r="AH9" s="154" t="s">
+      <c r="AF9" s="175"/>
+      <c r="AH9" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="155"/>
+      <c r="AI9" s="175"/>
     </row>
     <row r="10" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
@@ -5260,9 +5198,9 @@
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -5312,6 +5250,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="B2:I2"/>
@@ -5320,14 +5266,6 @@
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="M5:Q6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AE9:AF9"/>
   </mergeCells>
   <conditionalFormatting sqref="K10:K19 O10:O19 S10:S19 X10:X19 AC10:AC19">
     <cfRule type="colorScale" priority="1">
@@ -5456,10 +5394,8 @@
   </sheetPr>
   <dimension ref="A1:DE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="33840" topLeftCell="CT1"/>
-      <selection activeCell="AC11" sqref="AC11"/>
-      <selection pane="topRight" activeCell="CU8" sqref="CU8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CU4" sqref="CU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5511,7 +5447,7 @@
       </c>
       <c r="AL1" s="63">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45301</v>
       </c>
       <c r="AM1" s="63"/>
       <c r="AN1" s="63"/>
@@ -5519,142 +5455,142 @@
       <c r="AP1" s="63"/>
       <c r="AQ1" s="63"/>
     </row>
-    <row r="2" spans="1:109" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+    <row r="2" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="201" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="193"/>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="193"/>
+      <c r="AK2" s="193"/>
+      <c r="AL2" s="194"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
       <c r="AO2" s="66"/>
       <c r="AP2" s="66"/>
       <c r="AQ2" s="66"/>
     </row>
-    <row r="3" spans="1:109" ht="109" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="203" t="s">
+    <row r="3" spans="1:109" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="206" t="s">
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="207"/>
-      <c r="AD3" s="207"/>
-      <c r="AE3" s="207"/>
-      <c r="AF3" s="207"/>
-      <c r="AG3" s="207"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="207"/>
-      <c r="AJ3" s="207"/>
-      <c r="AK3" s="207"/>
-      <c r="AL3" s="208"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="199"/>
+      <c r="AK3" s="199"/>
+      <c r="AL3" s="200"/>
       <c r="AM3" s="67"/>
       <c r="AN3" s="67"/>
       <c r="AO3" s="67"/>
       <c r="AP3" s="67"/>
       <c r="AQ3" s="67"/>
     </row>
-    <row r="4" spans="1:109" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="212" t="s">
+    <row r="4" spans="1:109" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="213"/>
-      <c r="S4" s="213"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="214"/>
-      <c r="W4" s="209"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="210"/>
-      <c r="AE4" s="210"/>
-      <c r="AF4" s="210"/>
-      <c r="AG4" s="210"/>
-      <c r="AH4" s="210"/>
-      <c r="AI4" s="210"/>
-      <c r="AJ4" s="210"/>
-      <c r="AK4" s="210"/>
-      <c r="AL4" s="211"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="202"/>
+      <c r="AG4" s="202"/>
+      <c r="AH4" s="202"/>
+      <c r="AI4" s="202"/>
+      <c r="AJ4" s="202"/>
+      <c r="AK4" s="202"/>
+      <c r="AL4" s="203"/>
       <c r="AM4" s="67"/>
       <c r="AN4" s="67"/>
       <c r="AO4" s="67"/>
@@ -5662,291 +5598,291 @@
       <c r="AQ4" s="67"/>
     </row>
     <row r="5" spans="1:109" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="184" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="183"/>
-      <c r="Q5" s="183"/>
-      <c r="R5" s="183"/>
-      <c r="S5" s="183"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="183"/>
-      <c r="V5" s="183"/>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="183"/>
-      <c r="AA5" s="183"/>
-      <c r="AB5" s="183"/>
-      <c r="AC5" s="183"/>
-      <c r="AD5" s="183"/>
-      <c r="AE5" s="183"/>
-      <c r="AF5" s="183"/>
-      <c r="AG5" s="183"/>
-      <c r="AH5" s="183"/>
-      <c r="AI5" s="183"/>
-      <c r="AJ5" s="183"/>
-      <c r="AK5" s="183"/>
-      <c r="AL5" s="183"/>
-      <c r="AM5" s="196" t="s">
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="184"/>
+      <c r="AF5" s="184"/>
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="184"/>
+      <c r="AL5" s="184"/>
+      <c r="AM5" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="197"/>
-      <c r="AT5" s="197"/>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="197"/>
-      <c r="AY5" s="197"/>
-      <c r="AZ5" s="197"/>
-      <c r="BA5" s="197"/>
-      <c r="BB5" s="197"/>
-      <c r="BC5" s="197"/>
-      <c r="BD5" s="197"/>
-      <c r="BE5" s="197"/>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="127" t="s">
+      <c r="AN5" s="188"/>
+      <c r="AO5" s="188"/>
+      <c r="AP5" s="188"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="188"/>
+      <c r="AS5" s="188"/>
+      <c r="AT5" s="188"/>
+      <c r="AU5" s="188"/>
+      <c r="AV5" s="188"/>
+      <c r="AW5" s="188"/>
+      <c r="AX5" s="188"/>
+      <c r="AY5" s="188"/>
+      <c r="AZ5" s="188"/>
+      <c r="BA5" s="188"/>
+      <c r="BB5" s="188"/>
+      <c r="BC5" s="188"/>
+      <c r="BD5" s="188"/>
+      <c r="BE5" s="188"/>
+      <c r="BF5" s="189"/>
+      <c r="BG5" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="BH5" s="183" t="s">
+      <c r="BH5" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="BI5" s="183"/>
-      <c r="BJ5" s="183"/>
-      <c r="BK5" s="183"/>
-      <c r="BL5" s="183"/>
-      <c r="BM5" s="183"/>
-      <c r="BN5" s="187" t="s">
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="BO5" s="217"/>
-      <c r="BP5" s="217"/>
-      <c r="BQ5" s="217"/>
-      <c r="BR5" s="217"/>
-      <c r="BS5" s="217"/>
-      <c r="BT5" s="217"/>
-      <c r="BU5" s="188"/>
-      <c r="BV5" s="183" t="s">
+      <c r="BO5" s="179"/>
+      <c r="BP5" s="179"/>
+      <c r="BQ5" s="179"/>
+      <c r="BR5" s="179"/>
+      <c r="BS5" s="179"/>
+      <c r="BT5" s="179"/>
+      <c r="BU5" s="180"/>
+      <c r="BV5" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="BW5" s="183"/>
-      <c r="BX5" s="183"/>
-      <c r="BY5" s="183"/>
-      <c r="BZ5" s="183"/>
-      <c r="CA5" s="183"/>
-      <c r="CB5" s="183"/>
-      <c r="CC5" s="183"/>
-      <c r="CD5" s="183" t="s">
+      <c r="BW5" s="184"/>
+      <c r="BX5" s="184"/>
+      <c r="BY5" s="184"/>
+      <c r="BZ5" s="184"/>
+      <c r="CA5" s="184"/>
+      <c r="CB5" s="184"/>
+      <c r="CC5" s="184"/>
+      <c r="CD5" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="CE5" s="183"/>
-      <c r="CF5" s="183"/>
-      <c r="CG5" s="183"/>
-      <c r="CH5" s="183"/>
-      <c r="CI5" s="183" t="s">
+      <c r="CE5" s="184"/>
+      <c r="CF5" s="184"/>
+      <c r="CG5" s="184"/>
+      <c r="CH5" s="184"/>
+      <c r="CI5" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="CJ5" s="183"/>
-      <c r="CK5" s="183"/>
-      <c r="CL5" s="183"/>
-      <c r="CM5" s="183"/>
-      <c r="CN5" s="184" t="s">
+      <c r="CJ5" s="184"/>
+      <c r="CK5" s="184"/>
+      <c r="CL5" s="184"/>
+      <c r="CM5" s="184"/>
+      <c r="CN5" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="CO5" s="185"/>
-      <c r="CP5" s="185"/>
-      <c r="CQ5" s="185"/>
-      <c r="CR5" s="184" t="s">
+      <c r="CO5" s="216"/>
+      <c r="CP5" s="216"/>
+      <c r="CQ5" s="216"/>
+      <c r="CR5" s="215" t="s">
         <v>113</v>
       </c>
-      <c r="CS5" s="185"/>
-      <c r="CT5" s="185"/>
-      <c r="CU5" s="185"/>
-      <c r="CV5" s="187" t="s">
+      <c r="CS5" s="216"/>
+      <c r="CT5" s="216"/>
+      <c r="CU5" s="216"/>
+      <c r="CV5" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="CW5" s="188"/>
+      <c r="CW5" s="180"/>
       <c r="CX5" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="CY5" s="130" t="s">
+      <c r="CY5" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="CZ5" s="149" t="s">
+      <c r="CZ5" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="DA5" s="186" t="s">
+      <c r="DA5" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="DB5" s="186"/>
-      <c r="DC5" s="181" t="s">
+      <c r="DB5" s="217"/>
+      <c r="DC5" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="DD5" s="182"/>
-      <c r="DE5" s="182"/>
+      <c r="DD5" s="214"/>
+      <c r="DE5" s="214"/>
     </row>
     <row r="6" spans="1:109" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189" t="s">
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189" t="s">
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189" t="s">
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="190" t="s">
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="S6" s="190"/>
-      <c r="T6" s="190"/>
-      <c r="U6" s="190"/>
-      <c r="V6" s="190"/>
-      <c r="W6" s="194" t="s">
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
+      <c r="U6" s="208"/>
+      <c r="V6" s="208"/>
+      <c r="W6" s="212" t="s">
         <v>125</v>
       </c>
-      <c r="X6" s="195"/>
-      <c r="Y6" s="191" t="s">
+      <c r="X6" s="213"/>
+      <c r="Y6" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="Z6" s="192"/>
-      <c r="AA6" s="193" t="s">
+      <c r="Z6" s="210"/>
+      <c r="AA6" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193" t="s">
+      <c r="AB6" s="211"/>
+      <c r="AC6" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193" t="s">
+      <c r="AD6" s="211"/>
+      <c r="AE6" s="211" t="s">
         <v>129</v>
       </c>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193" t="s">
+      <c r="AF6" s="211"/>
+      <c r="AG6" s="211" t="s">
         <v>130</v>
       </c>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193" t="s">
+      <c r="AH6" s="211"/>
+      <c r="AI6" s="211" t="s">
         <v>131</v>
       </c>
-      <c r="AJ6" s="193"/>
-      <c r="AK6" s="152" t="s">
+      <c r="AJ6" s="211"/>
+      <c r="AK6" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="AL6" s="153" t="s">
+      <c r="AL6" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="AM6" s="215" t="s">
+      <c r="AM6" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="AN6" s="215"/>
-      <c r="AO6" s="215"/>
-      <c r="AP6" s="215"/>
-      <c r="AQ6" s="215"/>
-      <c r="AR6" s="215" t="s">
+      <c r="AN6" s="185"/>
+      <c r="AO6" s="185"/>
+      <c r="AP6" s="185"/>
+      <c r="AQ6" s="185"/>
+      <c r="AR6" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="AS6" s="215"/>
-      <c r="AT6" s="215"/>
-      <c r="AU6" s="215"/>
-      <c r="AV6" s="215"/>
-      <c r="AW6" s="215"/>
-      <c r="AX6" s="215" t="s">
+      <c r="AS6" s="185"/>
+      <c r="AT6" s="185"/>
+      <c r="AU6" s="185"/>
+      <c r="AV6" s="185"/>
+      <c r="AW6" s="185"/>
+      <c r="AX6" s="185" t="s">
         <v>136</v>
       </c>
-      <c r="AY6" s="215"/>
-      <c r="AZ6" s="215"/>
-      <c r="BA6" s="215"/>
-      <c r="BB6" s="215"/>
-      <c r="BC6" s="215"/>
-      <c r="BD6" s="216" t="s">
+      <c r="AY6" s="185"/>
+      <c r="AZ6" s="185"/>
+      <c r="BA6" s="185"/>
+      <c r="BB6" s="185"/>
+      <c r="BC6" s="185"/>
+      <c r="BD6" s="186" t="s">
         <v>137</v>
       </c>
-      <c r="BE6" s="216"/>
-      <c r="BF6" s="216"/>
+      <c r="BE6" s="186"/>
+      <c r="BF6" s="186"/>
       <c r="BG6" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="BH6" s="183" t="s">
+      <c r="BH6" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="BI6" s="183"/>
-      <c r="BJ6" s="183"/>
-      <c r="BK6" s="183"/>
-      <c r="BL6" s="183"/>
-      <c r="BM6" s="183"/>
-      <c r="BN6" s="187" t="s">
+      <c r="BI6" s="184"/>
+      <c r="BJ6" s="184"/>
+      <c r="BK6" s="184"/>
+      <c r="BL6" s="184"/>
+      <c r="BM6" s="184"/>
+      <c r="BN6" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="BO6" s="217"/>
-      <c r="BP6" s="217"/>
-      <c r="BQ6" s="217"/>
-      <c r="BR6" s="217"/>
-      <c r="BS6" s="217"/>
-      <c r="BT6" s="217"/>
-      <c r="BU6" s="188"/>
-      <c r="BV6" s="187" t="s">
+      <c r="BO6" s="179"/>
+      <c r="BP6" s="179"/>
+      <c r="BQ6" s="179"/>
+      <c r="BR6" s="179"/>
+      <c r="BS6" s="179"/>
+      <c r="BT6" s="179"/>
+      <c r="BU6" s="180"/>
+      <c r="BV6" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="BW6" s="217"/>
-      <c r="BX6" s="217"/>
-      <c r="BY6" s="217"/>
-      <c r="BZ6" s="188"/>
-      <c r="CA6" s="218" t="s">
+      <c r="BW6" s="179"/>
+      <c r="BX6" s="179"/>
+      <c r="BY6" s="179"/>
+      <c r="BZ6" s="180"/>
+      <c r="CA6" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="CB6" s="219"/>
-      <c r="CC6" s="220"/>
-      <c r="CD6" s="183" t="s">
+      <c r="CB6" s="182"/>
+      <c r="CC6" s="183"/>
+      <c r="CD6" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="CE6" s="183"/>
-      <c r="CF6" s="183"/>
-      <c r="CG6" s="183"/>
-      <c r="CH6" s="183"/>
-      <c r="CI6" s="183" t="s">
+      <c r="CE6" s="184"/>
+      <c r="CF6" s="184"/>
+      <c r="CG6" s="184"/>
+      <c r="CH6" s="184"/>
+      <c r="CI6" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="CJ6" s="183"/>
-      <c r="CK6" s="183"/>
-      <c r="CL6" s="183"/>
-      <c r="CM6" s="183"/>
+      <c r="CJ6" s="184"/>
+      <c r="CK6" s="184"/>
+      <c r="CL6" s="184"/>
+      <c r="CM6" s="184"/>
       <c r="CN6" s="98" t="s">
         <v>143</v>
       </c>
@@ -5971,20 +5907,20 @@
       <c r="CU6" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="CV6" s="128"/>
-      <c r="CW6" s="128"/>
+      <c r="CV6" s="127"/>
+      <c r="CW6" s="127"/>
       <c r="CX6" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="CY6" s="130"/>
-      <c r="CZ6" s="149"/>
-      <c r="DA6" s="141"/>
-      <c r="DB6" s="141"/>
-      <c r="DC6" s="181"/>
-      <c r="DD6" s="182"/>
-      <c r="DE6" s="182"/>
+      <c r="CY6" s="129"/>
+      <c r="CZ6" s="146"/>
+      <c r="DA6" s="138"/>
+      <c r="DB6" s="138"/>
+      <c r="DC6" s="189"/>
+      <c r="DD6" s="214"/>
+      <c r="DE6" s="214"/>
     </row>
-    <row r="7" spans="1:109" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:109" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>148</v>
       </c>
@@ -6123,17 +6059,17 @@
       <c r="CV7" s="64"/>
       <c r="CW7" s="64"/>
       <c r="CX7" s="64"/>
-      <c r="CY7" s="131" t="s">
+      <c r="CY7" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="CZ7" s="133" t="s">
+      <c r="CZ7" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="DA7" s="142" t="s">
+      <c r="DA7" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="DB7" s="142"/>
-      <c r="DC7" s="135"/>
+      <c r="DB7" s="139"/>
+      <c r="DC7" s="134"/>
       <c r="DD7" s="78"/>
       <c r="DE7" s="78"/>
     </row>
@@ -6355,23 +6291,23 @@
       <c r="CV8" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="CW8" s="132" t="s">
+      <c r="CW8" s="131" t="s">
         <v>213</v>
       </c>
       <c r="CX8" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="CY8" s="131" t="s">
+      <c r="CY8" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="CZ8" s="133" t="s">
+      <c r="CZ8" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="DA8" s="142" t="s">
+      <c r="DA8" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="DB8" s="143"/>
-      <c r="DC8" s="135"/>
+      <c r="DB8" s="140"/>
+      <c r="DC8" s="134"/>
       <c r="DD8" s="78"/>
       <c r="DE8" s="78"/>
     </row>
@@ -6618,25 +6554,25 @@
       <c r="CV9" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="CW9" s="133" t="s">
+      <c r="CW9" s="132" t="s">
         <v>223</v>
       </c>
       <c r="CX9" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="CY9" s="133" t="s">
+      <c r="CY9" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="CZ9" s="133" t="s">
+      <c r="CZ9" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="DA9" s="144" t="s">
+      <c r="DA9" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="DB9" s="142" t="s">
+      <c r="DB9" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="DC9" s="135"/>
+      <c r="DC9" s="134"/>
       <c r="DD9" s="110" t="s">
         <v>253</v>
       </c>
@@ -6893,17 +6829,17 @@
       <c r="CX10" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="CY10" s="131" t="s">
+      <c r="CY10" s="130" t="s">
         <v>287</v>
       </c>
-      <c r="CZ10" s="133" t="s">
+      <c r="CZ10" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="DA10" s="142" t="s">
+      <c r="DA10" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="DB10" s="143"/>
-      <c r="DC10" s="135"/>
+      <c r="DB10" s="140"/>
+      <c r="DC10" s="134"/>
       <c r="DD10" s="78"/>
       <c r="DE10" s="78"/>
     </row>
@@ -6973,7 +6909,7 @@
       </c>
       <c r="AB11" s="70"/>
       <c r="AC11" s="55" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="AD11" s="70"/>
       <c r="AE11" s="55" t="s">
@@ -7126,13 +7062,13 @@
         <v>186</v>
       </c>
       <c r="CN11" s="94" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="CO11" s="94" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="CP11" s="94" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="CQ11" s="78"/>
       <c r="CR11" s="109" t="s">
@@ -7147,22 +7083,22 @@
       <c r="CU11" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="CV11" s="137"/>
-      <c r="CW11" s="137"/>
+      <c r="CV11" s="136"/>
+      <c r="CW11" s="136"/>
       <c r="CX11" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="CY11" s="134" t="s">
+      <c r="CY11" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="CZ11" s="150" t="s">
+      <c r="CZ11" s="147" t="s">
         <v>294</v>
       </c>
-      <c r="DA11" s="145" t="s">
+      <c r="DA11" s="142" t="s">
         <v>268</v>
       </c>
-      <c r="DB11" s="146"/>
-      <c r="DC11" s="136" t="s">
+      <c r="DB11" s="143"/>
+      <c r="DC11" s="135" t="s">
         <v>305</v>
       </c>
       <c r="DD11" s="110" t="s">
@@ -7327,22 +7263,22 @@
       <c r="CV12" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="CW12" s="132" t="s">
+      <c r="CW12" s="131" t="s">
         <v>213</v>
       </c>
       <c r="CX12" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="CY12" s="132" t="s">
+      <c r="CY12" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="CZ12" s="150" t="s">
+      <c r="CZ12" s="147" t="s">
         <v>315</v>
       </c>
-      <c r="DA12" s="147" t="s">
+      <c r="DA12" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="DB12" s="148"/>
+      <c r="DB12" s="145"/>
       <c r="DC12" s="91"/>
       <c r="DD12" s="64"/>
       <c r="DE12" s="64"/>
@@ -7462,15 +7398,15 @@
       <c r="CV13" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="CW13" s="133" t="s">
+      <c r="CW13" s="132" t="s">
         <v>223</v>
       </c>
       <c r="CX13" s="64"/>
       <c r="CZ13" s="64"/>
-      <c r="DA13" s="151" t="s">
+      <c r="DA13" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="DB13" s="140"/>
+      <c r="DB13" s="137"/>
     </row>
     <row r="14" spans="1:109" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="70" t="s">
@@ -7710,8 +7646,8 @@
       <c r="CS16" s="64"/>
       <c r="CT16" s="70"/>
       <c r="CU16" s="70"/>
-      <c r="CV16" s="129"/>
-      <c r="CW16" s="129"/>
+      <c r="CV16" s="128"/>
+      <c r="CW16" s="128"/>
     </row>
     <row r="17" spans="1:101" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
@@ -7743,8 +7679,8 @@
       <c r="CS17" s="64"/>
       <c r="CT17" s="64"/>
       <c r="CU17" s="69"/>
-      <c r="CV17" s="129"/>
-      <c r="CW17" s="129"/>
+      <c r="CV17" s="128"/>
+      <c r="CW17" s="128"/>
     </row>
     <row r="18" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N18" s="70"/>
@@ -7768,27 +7704,13 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CC6"/>
-    <mergeCell ref="CI6:CM6"/>
-    <mergeCell ref="BH5:BM5"/>
-    <mergeCell ref="BV5:CC5"/>
-    <mergeCell ref="CD5:CH5"/>
-    <mergeCell ref="CD6:CH6"/>
-    <mergeCell ref="BN5:BU5"/>
-    <mergeCell ref="BN6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AW6"/>
-    <mergeCell ref="AX6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BH6:BM6"/>
-    <mergeCell ref="AM5:BF5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="W2:AL2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="W3:AL4"/>
-    <mergeCell ref="B4:V4"/>
-    <mergeCell ref="B5:AL5"/>
+    <mergeCell ref="DC5:DE5"/>
+    <mergeCell ref="CI5:CM5"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="CN5:CQ5"/>
+    <mergeCell ref="CR5:CU5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="CV5:CW5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="R6:V6"/>
     <mergeCell ref="Y6:Z6"/>
@@ -7801,13 +7723,27 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="DC5:DE5"/>
-    <mergeCell ref="CI5:CM5"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="CN5:CQ5"/>
-    <mergeCell ref="CR5:CU5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="AM5:BF5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="W2:AL2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="W3:AL4"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="B5:AL5"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AW6"/>
+    <mergeCell ref="AX6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BH6:BM6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CC6"/>
+    <mergeCell ref="CI6:CM6"/>
+    <mergeCell ref="BH5:BM5"/>
+    <mergeCell ref="BV5:CC5"/>
+    <mergeCell ref="CD5:CH5"/>
+    <mergeCell ref="CD6:CH6"/>
+    <mergeCell ref="BN5:BU5"/>
+    <mergeCell ref="BN6:BU6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="10" fitToHeight="6" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7815,179 +7751,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C397771-1A2A-5F4D-B3F6-F4CEA4DED347}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="139"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="138"/>
-      <c r="B1" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="138">
-        <v>570</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="138">
-        <v>591</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="138">
-        <v>525</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="138">
-        <v>609</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="138">
-        <v>613</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="138">
-        <v>299</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="138">
-        <v>223</v>
-      </c>
-      <c r="B8" s="126" t="s">
-        <v>340</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="138">
-        <v>571</v>
-      </c>
-      <c r="B9" s="126" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="138">
-        <v>572</v>
-      </c>
-      <c r="B10" s="126" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="138" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8168,27 +7938,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60eed870-47b7-4398-bacb-923956a4e3c6"/>
-    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8213,9 +7971,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60eed870-47b7-4398-bacb-923956a4e3c6"/>
+    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MAE_Master_Course_Plan_AY241.xlsx
+++ b/MAE_Master_Course_Plan_AY241.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianbingham/WorkingDirectory/proc_teachingschedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A04C02A-D9B5-3049-B74B-C0A805A08038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804ECDD9-2313-6C43-B35F-CDE69118341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38000" yWindow="3320" windowWidth="49260" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24720" yWindow="580" windowWidth="49260" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="533 10 quarter (Summer)" sheetId="6" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'533 10 quarter (Summer)'!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'AY24'!$A$1:$DE$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'AY24'!$A$1:$DC$8</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +46,7 @@
     <author>tc={C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}</author>
   </authors>
   <commentList>
-    <comment ref="AL6" authorId="0" shapeId="0" xr:uid="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="318">
   <si>
     <t>533 COMBAT SYSTEMS SCIENCE AND ENGINEERING</t>
   </si>
@@ -1461,94 +1461,10 @@
 Principles of Acquisition Production and Quality Management</t>
   </si>
   <si>
-    <t>DRAFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Date: </t>
-  </si>
-  <si>
-    <t>570 Core Courses</t>
-  </si>
-  <si>
-    <t>Specialization Track Courses</t>
-  </si>
-  <si>
-    <t>570 Core Courses: Students must take or validate all of these courses for degree and/or p-code
-* Students with engineering undergraduate degrees should work with Academic Associate to determine what 1000 and 2000-level courses should be validated based on previous coursework.</t>
-  </si>
-  <si>
-    <t>Specialization Track:
-- Choose two of the five specialization tracks.
-- At least eight total classes from the two specialization tracks.
-- At least two courses from each track.
-- At least three courses at the 4000 level.
-- At least two of the 4000 level courses must be related to thesis area.
-- General electives may count toward any track.
-Scheduling
-- When scheduling track courses, consider prerequisites and plan accordingly
-- Course offerings for current year (AY23) are set, but future years are subject tochange.  The course offereing plan is typically available in June for the following Academic Year (Oct-Sept).  What is listed beyond AY24 is tentative.</t>
-  </si>
-  <si>
-    <t>Thesis blocks: Must take at least four thesis blocks (16) credits.  Students work with thesis advisors on exact shedule of when to take thesis blocks.  May take an optional fifth thesis block of all requirments are met.  May take an optional sixth thesis block with MAE Chair approval.</t>
-  </si>
-  <si>
-    <t>570 Naval/Mechanical Engineering</t>
-  </si>
-  <si>
-    <t>591 Space Systems Engineering</t>
-  </si>
-  <si>
-    <t>366 Space Systems Operations</t>
-  </si>
-  <si>
     <t>570 Bowman 1-year</t>
   </si>
   <si>
     <t>525 Bowman 1-year</t>
-  </si>
-  <si>
-    <t>609 Shoemaker 1-year</t>
-  </si>
-  <si>
-    <t>591 Shoemaker 1-year</t>
-  </si>
-  <si>
-    <t>613   
-2024 Starts
-DL</t>
-  </si>
-  <si>
-    <t>613
-2023 Starts
-DL</t>
-  </si>
-  <si>
-    <t>118
-Aerospace Cert for SNA
-DL</t>
-  </si>
-  <si>
-    <t>299 
-ATO
-DL</t>
-  </si>
-  <si>
-    <t>223 
-Robotics
-DL</t>
-  </si>
-  <si>
-    <t>571
-Naval Reactors
-DL</t>
-  </si>
-  <si>
-    <t>572
-DL
-Async</t>
-  </si>
-  <si>
-    <t>MAE Folk Teaching for Other Departments</t>
   </si>
   <si>
     <t>Academic Year/Qtr</t>
@@ -1562,20 +1478,10 @@
 Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
   </si>
   <si>
-    <t>Spring/Summer
-Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
-  </si>
-  <si>
-    <t>Core, To-Be-Planned Courses: These courses are required, but must be scheduled by the student.</t>
-  </si>
-  <si>
     <t>Controls Track
 (Also see appropriate 591 electives)</t>
   </si>
   <si>
-    <t>590 Controls Track</t>
-  </si>
-  <si>
     <t>Materials Track</t>
   </si>
   <si>
@@ -1586,9 +1492,6 @@
   </si>
   <si>
     <t>TSSE</t>
-  </si>
-  <si>
-    <t>General Electives</t>
   </si>
   <si>
     <t>Other</t>
@@ -2557,12 +2460,28 @@
 Mech of Solids II
 [Alley]</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fall/Winter Start
+Core, Pre-Planned Courses: This is the general recommended schedule for taking these required  courses and this is what is pre-loaded into student course plan (matrix) prior to arrivel.  Students may validate introductory courses.  </t>
+  </si>
+  <si>
+    <t>Core, To-Be-Planned Courses: 
+These courses are also required, but must be scheduled by the student.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring/Summer
+Core, Pre-Planned Courses: This is the general recommended schedule for taking these required  courses and this is what is pre-loaded into student course plan (matrix) prior to arrivel.  Students may validate introductory courses.  </t>
+  </si>
+  <si>
+    <t>General Electives
+Count towards any Track</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2731,14 +2650,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2752,15 +2663,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2817,19 +2721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2972,7 +2864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3166,67 +3058,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -3248,35 +3079,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3284,7 +3086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3423,300 +3225,287 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3783,124 +3572,55 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4225,7 +3945,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AL6" dT="2022-11-17T16:10:43.38" personId="{0AB1A481-67C1-48FA-AD82-64C389995DF6}" id="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
+  <threadedComment ref="AJ1" dT="2022-11-17T16:10:43.38" personId="{0AB1A481-67C1-48FA-AD82-64C389995DF6}" id="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
     <text>Courses listed only for reference and do not represent alignment of quarter in assigned course matrix.</text>
   </threadedComment>
 </ThreadedComments>
@@ -4271,23 +3991,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="M1" s="152" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="M1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="154"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="149"/>
       <c r="R1" s="34"/>
       <c r="U1" s="22" t="s">
         <v>2</v>
@@ -4300,25 +4020,25 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="M2" s="156" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="M2" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="158"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="153"/>
       <c r="R2" s="35"/>
-      <c r="U2" s="159" t="s">
+      <c r="U2" s="154" t="s">
         <v>7</v>
       </c>
       <c r="AF2" s="3" t="s">
@@ -4337,15 +4057,15 @@
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="M3" s="162" t="s">
+      <c r="M3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="164"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="159"/>
       <c r="R3" s="36"/>
-      <c r="U3" s="160"/>
+      <c r="U3" s="155"/>
     </row>
     <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="60"/>
@@ -4356,15 +4076,15 @@
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
-      <c r="M4" s="165" t="s">
+      <c r="M4" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="167"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="162"/>
       <c r="R4" s="37"/>
-      <c r="U4" s="160"/>
+      <c r="U4" s="155"/>
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="60"/>
@@ -4373,15 +4093,15 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
-      <c r="M5" s="168" t="s">
+      <c r="M5" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="170"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="165"/>
       <c r="R5" s="53"/>
-      <c r="U5" s="161"/>
+      <c r="U5" s="156"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
@@ -4391,11 +4111,11 @@
       <c r="F6" s="60"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="173"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="168"/>
       <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4455,45 +4175,45 @@
         <v>18</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="174" t="s">
+      <c r="I9" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="176"/>
-      <c r="K9" s="177"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="174" t="s">
+      <c r="M9" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="176"/>
-      <c r="O9" s="177"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="172"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="174" t="s">
+      <c r="Q9" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="176"/>
-      <c r="S9" s="177"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="172"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="174" t="s">
+      <c r="U9" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="172"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="174" t="s">
+      <c r="Z9" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="175"/>
-      <c r="AE9" s="174" t="s">
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="170"/>
+      <c r="AE9" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="175"/>
-      <c r="AH9" s="174" t="s">
+      <c r="AF9" s="170"/>
+      <c r="AH9" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="175"/>
+      <c r="AI9" s="170"/>
     </row>
     <row r="10" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
@@ -5198,9 +4918,9 @@
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
       <c r="H24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -5392,2358 +5112,1975 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DE19"/>
+  <dimension ref="A1:DC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CU4" sqref="CU4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="118" width="15.83203125" customWidth="1"/>
+    <col min="2" max="116" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:107" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="183" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="184" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="186" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="189" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" s="180"/>
+      <c r="AM1" s="180"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
+      <c r="BB1" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF1" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" t="s">
+      <c r="BG1" s="179"/>
+      <c r="BH1" s="179"/>
+      <c r="BI1" s="179"/>
+      <c r="BJ1" s="179"/>
+      <c r="BK1" s="179"/>
+      <c r="BL1" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="AL1" s="63">
-        <f ca="1">TODAY()</f>
-        <v>45301</v>
-      </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
+      <c r="BM1" s="174"/>
+      <c r="BN1" s="174"/>
+      <c r="BO1" s="174"/>
+      <c r="BP1" s="174"/>
+      <c r="BQ1" s="174"/>
+      <c r="BR1" s="174"/>
+      <c r="BS1" s="175"/>
+      <c r="BT1" s="173" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU1" s="174"/>
+      <c r="BV1" s="174"/>
+      <c r="BW1" s="174"/>
+      <c r="BX1" s="175"/>
+      <c r="BY1" s="176" t="s">
+        <v>116</v>
+      </c>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="178"/>
+      <c r="CB1" s="179" t="s">
+        <v>117</v>
+      </c>
+      <c r="CC1" s="179"/>
+      <c r="CD1" s="179"/>
+      <c r="CE1" s="179"/>
+      <c r="CF1" s="179"/>
+      <c r="CG1" s="179" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH1" s="179"/>
+      <c r="CI1" s="179"/>
+      <c r="CJ1" s="179"/>
+      <c r="CK1" s="179"/>
+      <c r="CL1" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM1" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN1" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO1" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP1" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="CQ1" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR1" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="CS1" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="CT1" s="122"/>
+      <c r="CU1" s="122"/>
+      <c r="CV1" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="CW1" s="124"/>
+      <c r="CX1" s="141"/>
+      <c r="CY1" s="133"/>
+      <c r="CZ1" s="133"/>
+      <c r="DA1" s="182"/>
+      <c r="DB1" s="188"/>
+      <c r="DC1" s="188"/>
     </row>
-    <row r="2" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="190" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="193" t="s">
-        <v>101</v>
-      </c>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="193"/>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="193"/>
-      <c r="AK2" s="193"/>
-      <c r="AL2" s="194"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
+    <row r="2" spans="1:107" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD2" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ2" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR2" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS2" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT2" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="63"/>
+      <c r="BG2" s="63"/>
+      <c r="BH2" s="63"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="113"/>
+      <c r="BN2" s="113"/>
+      <c r="BO2" s="113"/>
+      <c r="BP2" s="113"/>
+      <c r="BQ2" s="113"/>
+      <c r="BR2" s="85"/>
+      <c r="BS2" s="85"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="63"/>
+      <c r="BY2" s="86"/>
+      <c r="BZ2" s="86"/>
+      <c r="CA2" s="86"/>
+      <c r="CB2" s="63"/>
+      <c r="CC2" s="63"/>
+      <c r="CD2" s="63"/>
+      <c r="CE2" s="63"/>
+      <c r="CF2" s="63"/>
+      <c r="CG2" s="63"/>
+      <c r="CH2" s="63"/>
+      <c r="CI2" s="63"/>
+      <c r="CJ2" s="63"/>
+      <c r="CK2" s="63"/>
+      <c r="CL2" s="63"/>
+      <c r="CM2" s="63"/>
+      <c r="CN2" s="63"/>
+      <c r="CO2" s="63"/>
+      <c r="CP2" s="63"/>
+      <c r="CQ2" s="63"/>
+      <c r="CR2" s="63"/>
+      <c r="CS2" s="63"/>
+      <c r="CT2" s="63"/>
+      <c r="CU2" s="63"/>
+      <c r="CV2" s="63"/>
+      <c r="CW2" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX2" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY2" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ2" s="134"/>
+      <c r="DA2" s="129"/>
+      <c r="DB2" s="75"/>
+      <c r="DC2" s="75"/>
     </row>
-    <row r="3" spans="1:109" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="195" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="198" t="s">
-        <v>103</v>
-      </c>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="199"/>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="199"/>
-      <c r="AJ3" s="199"/>
-      <c r="AK3" s="199"/>
-      <c r="AL3" s="200"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
+    <row r="3" spans="1:107" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB3" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC3" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK3" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL3" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM3" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP3" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ3" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR3" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS3" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW3" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX3" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY3" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG3" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH3" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ3" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK3" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL3" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM3" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN3" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO3" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP3" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ3" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR3" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="BS3" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT3" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU3" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="BV3" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW3" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX3" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY3" s="81"/>
+      <c r="BZ3" s="67"/>
+      <c r="CB3" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC3" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="CD3" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE3" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF3" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG3" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH3" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="CI3" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="CJ3" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK3" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU3" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV3" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="CW3" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX3" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="CY3" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="CZ3" s="135"/>
+      <c r="DA3" s="129"/>
+      <c r="DB3" s="75"/>
+      <c r="DC3" s="75"/>
     </row>
-    <row r="4" spans="1:109" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="204" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="201"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="202"/>
-      <c r="AF4" s="202"/>
-      <c r="AG4" s="202"/>
-      <c r="AH4" s="202"/>
-      <c r="AI4" s="202"/>
-      <c r="AJ4" s="202"/>
-      <c r="AK4" s="202"/>
-      <c r="AL4" s="203"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
+    <row r="4" spans="1:107" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="S4" s="65"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z4" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF4" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG4" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK4" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP4" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ4" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR4" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT4" s="67"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW4" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX4" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY4" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ4" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC4" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD4" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE4" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF4" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG4" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="BH4" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ4" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM4" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN4" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO4" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
+      <c r="BR4" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="BS4" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT4" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="BU4" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV4" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW4" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX4" s="63"/>
+      <c r="BY4" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ4" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="CA4" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="CB4" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="CC4" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="CD4" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="CE4" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG4" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="CH4" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI4" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="CJ4" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="CK4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CL4" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CM4" s="75"/>
+      <c r="CN4" s="108"/>
+      <c r="CO4" s="108"/>
+      <c r="CP4" s="63"/>
+      <c r="CQ4" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CR4" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CS4" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CT4" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CU4" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV4" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="CW4" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="CX4" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="CY4" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="CZ4" s="134" t="s">
+        <v>192</v>
+      </c>
+      <c r="DA4" s="129"/>
+      <c r="DB4" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="DC4" s="75"/>
     </row>
-    <row r="5" spans="1:109" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="184" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="184"/>
-      <c r="AF5" s="184"/>
-      <c r="AG5" s="184"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="184"/>
-      <c r="AL5" s="184"/>
-      <c r="AM5" s="187" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN5" s="188"/>
-      <c r="AO5" s="188"/>
-      <c r="AP5" s="188"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="188"/>
-      <c r="AS5" s="188"/>
-      <c r="AT5" s="188"/>
-      <c r="AU5" s="188"/>
-      <c r="AV5" s="188"/>
-      <c r="AW5" s="188"/>
-      <c r="AX5" s="188"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="188"/>
-      <c r="BA5" s="188"/>
-      <c r="BB5" s="188"/>
-      <c r="BC5" s="188"/>
-      <c r="BD5" s="188"/>
-      <c r="BE5" s="188"/>
-      <c r="BF5" s="189"/>
-      <c r="BG5" s="126" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH5" s="184" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO5" s="179"/>
-      <c r="BP5" s="179"/>
-      <c r="BQ5" s="179"/>
-      <c r="BR5" s="179"/>
-      <c r="BS5" s="179"/>
-      <c r="BT5" s="179"/>
-      <c r="BU5" s="180"/>
-      <c r="BV5" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="BW5" s="184"/>
-      <c r="BX5" s="184"/>
-      <c r="BY5" s="184"/>
-      <c r="BZ5" s="184"/>
-      <c r="CA5" s="184"/>
-      <c r="CB5" s="184"/>
-      <c r="CC5" s="184"/>
-      <c r="CD5" s="184" t="s">
-        <v>111</v>
-      </c>
-      <c r="CE5" s="184"/>
-      <c r="CF5" s="184"/>
-      <c r="CG5" s="184"/>
-      <c r="CH5" s="184"/>
-      <c r="CI5" s="184" t="s">
-        <v>111</v>
-      </c>
-      <c r="CJ5" s="184"/>
-      <c r="CK5" s="184"/>
-      <c r="CL5" s="184"/>
-      <c r="CM5" s="184"/>
-      <c r="CN5" s="215" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO5" s="216"/>
-      <c r="CP5" s="216"/>
-      <c r="CQ5" s="216"/>
-      <c r="CR5" s="215" t="s">
-        <v>113</v>
-      </c>
-      <c r="CS5" s="216"/>
-      <c r="CT5" s="216"/>
-      <c r="CU5" s="216"/>
-      <c r="CV5" s="178" t="s">
-        <v>114</v>
-      </c>
-      <c r="CW5" s="180"/>
-      <c r="CX5" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="CY5" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="CZ5" s="146" t="s">
-        <v>117</v>
-      </c>
-      <c r="DA5" s="217" t="s">
-        <v>118</v>
-      </c>
-      <c r="DB5" s="217"/>
-      <c r="DC5" s="189" t="s">
-        <v>119</v>
-      </c>
-      <c r="DD5" s="214"/>
-      <c r="DE5" s="214"/>
+    <row r="5" spans="1:107" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="S5" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="T5" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="U5" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="V5" s="67"/>
+      <c r="W5" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y5" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z5" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA5" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF5" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG5" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH5" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI5" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ5" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ5" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="AR5" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS5" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV5" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW5" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX5" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY5" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB5" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="BC5" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF5" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="BG5" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH5" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="BI5" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ5" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="BM5" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="BN5" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO5" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP5" s="63"/>
+      <c r="BQ5" s="63"/>
+      <c r="BR5" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="BS5" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT5" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU5" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="BV5" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW5" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX5" s="63"/>
+      <c r="BY5" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="BZ5" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="CA5" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB5" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="CC5" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD5" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="CE5" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="CF5" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG5" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="CH5" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="CI5" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="CJ5" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="CK5" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CL5" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM5" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN5" s="75"/>
+      <c r="CO5" s="75"/>
+      <c r="CP5" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CQ5" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CR5" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CS5" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CT5" s="67"/>
+      <c r="CU5" s="67"/>
+      <c r="CV5" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="CW5" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="CX5" s="127" t="s">
+        <v>243</v>
+      </c>
+      <c r="CY5" s="134" t="s">
+        <v>264</v>
+      </c>
+      <c r="CZ5" s="135"/>
+      <c r="DA5" s="129"/>
+      <c r="DB5" s="75"/>
+      <c r="DC5" s="75"/>
     </row>
-    <row r="6" spans="1:109" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="207" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="208" t="s">
-        <v>124</v>
-      </c>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="208"/>
-      <c r="W6" s="212" t="s">
+    <row r="6" spans="1:107" ht="144" x14ac:dyDescent="0.2">
+      <c r="A6" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="X6" s="213"/>
-      <c r="Y6" s="209" t="s">
+      <c r="K6" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="Z6" s="210"/>
-      <c r="AA6" s="211" t="s">
+      <c r="L6" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q6" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="R6" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="S6" s="65"/>
+      <c r="T6" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF6" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG6" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH6" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="121" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK6" s="80"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="80"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="80"/>
+      <c r="AP6" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ6" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV6" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW6" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX6" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY6" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ6" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="81"/>
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG6" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ6" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM6" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="BN6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP6" s="63"/>
+      <c r="BQ6" s="63"/>
+      <c r="BR6" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="BS6" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT6" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="BU6" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BW6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX6" s="63"/>
+      <c r="BY6" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ6" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="CA6" s="86"/>
+      <c r="CB6" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="CC6" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD6" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG6" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH6" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="CI6" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="CJ6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CK6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="CL6" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="CM6" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="CN6" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="CO6" s="75"/>
+      <c r="CP6" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CQ6" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CR6" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CS6" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CT6" s="131"/>
+      <c r="CU6" s="131"/>
+      <c r="CV6" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="CW6" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX6" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="CY6" s="137" t="s">
+        <v>244</v>
+      </c>
+      <c r="CZ6" s="138"/>
+      <c r="DA6" s="130" t="s">
+        <v>281</v>
+      </c>
+      <c r="DB6" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="DC6" s="75"/>
+    </row>
+    <row r="7" spans="1:107" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="T7" s="108"/>
+      <c r="U7" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="W7" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z7" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA7" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG7" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH7" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI7" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="80"/>
+      <c r="AP7" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ7" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR7" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV7" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW7" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX7" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY7" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="BB7" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="91" t="s">
+        <v>297</v>
+      </c>
+      <c r="CL7" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="CM7" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="CN7" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="CO7" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="CP7" s="63"/>
+      <c r="CQ7" s="63"/>
+      <c r="CR7" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="CS7" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="CT7" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU7" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV7" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="CW7" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="CX7" s="142" t="s">
+        <v>291</v>
+      </c>
+      <c r="CY7" s="139" t="s">
+        <v>299</v>
+      </c>
+      <c r="CZ7" s="140"/>
+      <c r="DA7" s="88"/>
+      <c r="DB7" s="63"/>
+      <c r="DC7" s="63"/>
+    </row>
+    <row r="8" spans="1:107" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="AB6" s="211"/>
-      <c r="AC6" s="211" t="s">
+      <c r="Q8" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="AD6" s="211"/>
-      <c r="AE6" s="211" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF6" s="211"/>
-      <c r="AG6" s="211" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH6" s="211"/>
-      <c r="AI6" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ6" s="211"/>
-      <c r="AK6" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL6" s="150" t="s">
+      <c r="R8" s="65"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AM6" s="185" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN6" s="185"/>
-      <c r="AO6" s="185"/>
-      <c r="AP6" s="185"/>
-      <c r="AQ6" s="185"/>
-      <c r="AR6" s="185" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS6" s="185"/>
-      <c r="AT6" s="185"/>
-      <c r="AU6" s="185"/>
-      <c r="AV6" s="185"/>
-      <c r="AW6" s="185"/>
-      <c r="AX6" s="185" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY6" s="185"/>
-      <c r="AZ6" s="185"/>
-      <c r="BA6" s="185"/>
-      <c r="BB6" s="185"/>
-      <c r="BC6" s="185"/>
-      <c r="BD6" s="186" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE6" s="186"/>
-      <c r="BF6" s="186"/>
-      <c r="BG6" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="BH6" s="184" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI6" s="184"/>
-      <c r="BJ6" s="184"/>
-      <c r="BK6" s="184"/>
-      <c r="BL6" s="184"/>
-      <c r="BM6" s="184"/>
-      <c r="BN6" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO6" s="179"/>
-      <c r="BP6" s="179"/>
-      <c r="BQ6" s="179"/>
-      <c r="BR6" s="179"/>
-      <c r="BS6" s="179"/>
-      <c r="BT6" s="179"/>
-      <c r="BU6" s="180"/>
-      <c r="BV6" s="178" t="s">
-        <v>139</v>
-      </c>
-      <c r="BW6" s="179"/>
-      <c r="BX6" s="179"/>
-      <c r="BY6" s="179"/>
-      <c r="BZ6" s="180"/>
-      <c r="CA6" s="181" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB6" s="182"/>
-      <c r="CC6" s="183"/>
-      <c r="CD6" s="184" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE6" s="184"/>
-      <c r="CF6" s="184"/>
-      <c r="CG6" s="184"/>
-      <c r="CH6" s="184"/>
-      <c r="CI6" s="184" t="s">
-        <v>142</v>
-      </c>
-      <c r="CJ6" s="184"/>
-      <c r="CK6" s="184"/>
-      <c r="CL6" s="184"/>
-      <c r="CM6" s="184"/>
-      <c r="CN6" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="CO6" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="CP6" s="98" t="s">
+      <c r="AI8" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW8" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX8" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY8" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="CL8" s="63"/>
+      <c r="CM8" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CN8" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CO8" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP8" s="63"/>
+      <c r="CQ8" s="63"/>
+      <c r="CR8" s="63"/>
+      <c r="CS8" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="CT8" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="CU8" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV8" s="63"/>
+      <c r="CX8" s="63"/>
+      <c r="CY8" s="143" t="s">
+        <v>304</v>
+      </c>
+      <c r="CZ8" s="132"/>
+    </row>
+    <row r="9" spans="1:107" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="CQ6" s="98" t="s">
+      <c r="O9" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="CR6" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="CS6" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="CT6" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="CU6" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="CV6" s="127"/>
-      <c r="CW6" s="127"/>
-      <c r="CX6" s="102" t="s">
+      <c r="P9" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="CY6" s="129"/>
-      <c r="CZ6" s="146"/>
-      <c r="DA6" s="138"/>
-      <c r="DB6" s="138"/>
-      <c r="DC6" s="189"/>
-      <c r="DD6" s="214"/>
-      <c r="DE6" s="214"/>
+      <c r="Q9" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="81"/>
+      <c r="AQ9" s="81"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW9" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX9" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY9" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB9" s="67"/>
+      <c r="BC9" s="67"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="67"/>
+      <c r="CL9" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CM9" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CN9" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CO9" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CP9" s="67"/>
+      <c r="CQ9" s="67"/>
+      <c r="CR9" s="67"/>
+      <c r="CS9" s="67"/>
+      <c r="CT9" s="67"/>
+      <c r="CU9" s="67"/>
+      <c r="CV9" s="63"/>
     </row>
-    <row r="7" spans="1:109" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="55" t="s">
+    <row r="10" spans="1:107" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="67"/>
+      <c r="L10" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="67"/>
+      <c r="N10" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="67"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW10" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX10" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY10" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="67"/>
+      <c r="BC10" s="67"/>
+      <c r="BD10" s="67"/>
+      <c r="BE10" s="67"/>
+      <c r="CL10" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM10" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN10" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO10" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP10" s="108"/>
+      <c r="CQ10" s="108"/>
+      <c r="CR10" s="108"/>
+      <c r="CS10" s="108"/>
+      <c r="CT10" s="108"/>
+      <c r="CU10" s="108"/>
+      <c r="CV10" s="63"/>
+    </row>
+    <row r="11" spans="1:107" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="N11" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="CL11" s="63"/>
+      <c r="CM11" s="63"/>
+      <c r="CN11" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="AF7" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS7" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT7" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU7" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="AV7" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="64"/>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="64"/>
-      <c r="BC7" s="64"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="70"/>
-      <c r="BG7" s="70"/>
-      <c r="BH7" s="64"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="89"/>
-      <c r="BN7" s="88"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="88"/>
-      <c r="BU7" s="88"/>
-      <c r="BV7" s="91"/>
-      <c r="BW7" s="64"/>
-      <c r="BX7" s="64"/>
-      <c r="BY7" s="64"/>
-      <c r="BZ7" s="64"/>
-      <c r="CA7" s="89"/>
-      <c r="CB7" s="89"/>
-      <c r="CC7" s="89"/>
-      <c r="CD7" s="64"/>
-      <c r="CE7" s="64"/>
-      <c r="CF7" s="64"/>
-      <c r="CG7" s="64"/>
-      <c r="CH7" s="64"/>
-      <c r="CI7" s="64"/>
-      <c r="CJ7" s="64"/>
-      <c r="CK7" s="64"/>
-      <c r="CL7" s="64"/>
-      <c r="CM7" s="64"/>
-      <c r="CN7" s="64"/>
-      <c r="CO7" s="64"/>
-      <c r="CP7" s="64"/>
-      <c r="CQ7" s="64"/>
-      <c r="CR7" s="64"/>
-      <c r="CS7" s="64"/>
-      <c r="CT7" s="64"/>
-      <c r="CU7" s="64"/>
-      <c r="CV7" s="64"/>
-      <c r="CW7" s="64"/>
-      <c r="CX7" s="64"/>
-      <c r="CY7" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="CZ7" s="132" t="s">
-        <v>159</v>
-      </c>
-      <c r="DA7" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="DB7" s="139"/>
-      <c r="DC7" s="134"/>
-      <c r="DD7" s="78"/>
-      <c r="DE7" s="78"/>
+      <c r="CO11" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="CP11" s="63"/>
+      <c r="CQ11" s="63"/>
+      <c r="CR11" s="67"/>
+      <c r="CS11" s="67"/>
+      <c r="CT11" s="123"/>
+      <c r="CU11" s="123"/>
     </row>
-    <row r="8" spans="1:109" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="V8" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD8" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE8" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM8" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN8" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="AO8" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="113" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR8" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS8" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT8" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="AU8" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY8" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ8" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA8" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI8" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="BJ8" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK8" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL8" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM8" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN8" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO8" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="BP8" s="54" t="s">
+    <row r="12" spans="1:107" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="M12" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="O12" s="67"/>
+      <c r="P12" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q12" s="67"/>
+      <c r="CL12" s="63"/>
+      <c r="CM12" s="63"/>
+      <c r="CN12" s="63"/>
+      <c r="CO12" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="BQ8" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="BR8" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS8" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="BT8" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU8" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV8" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="BW8" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="BX8" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="BY8" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="BZ8" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="CA8" s="84"/>
-      <c r="CB8" s="70"/>
-      <c r="CD8" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="CE8" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="CF8" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="CG8" s="120" t="s">
-        <v>210</v>
-      </c>
-      <c r="CH8" s="90" t="s">
-        <v>211</v>
-      </c>
-      <c r="CI8" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="CJ8" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="CK8" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="CL8" s="120" t="s">
-        <v>210</v>
-      </c>
-      <c r="CM8" s="90" t="s">
-        <v>211</v>
-      </c>
-      <c r="CN8" s="70"/>
-      <c r="CO8" s="70"/>
-      <c r="CP8" s="70"/>
-      <c r="CQ8" s="70"/>
-      <c r="CR8" s="70"/>
-      <c r="CS8" s="70"/>
-      <c r="CT8" s="70"/>
-      <c r="CU8" s="70"/>
-      <c r="CV8" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="CW8" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX8" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="CY8" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="CZ8" s="132" t="s">
-        <v>215</v>
-      </c>
-      <c r="DA8" s="139" t="s">
-        <v>216</v>
-      </c>
-      <c r="DB8" s="140"/>
-      <c r="DC8" s="134"/>
-      <c r="DD8" s="78"/>
-      <c r="DE8" s="78"/>
+      <c r="CP12" s="63"/>
+      <c r="CQ12" s="63"/>
+      <c r="CR12" s="63"/>
+      <c r="CS12" s="66"/>
+      <c r="CT12" s="123"/>
+      <c r="CU12" s="123"/>
     </row>
-    <row r="9" spans="1:109" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB9" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC9" s="55" t="s">
+    <row r="13" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH9" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI9" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="AM9" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN9" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO9" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="AR9" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS9" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT9" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU9" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="AY9" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="AZ9" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="BA9" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB9" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC9" s="64"/>
-      <c r="BD9" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE9" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="BF9" s="124" t="s">
-        <v>242</v>
-      </c>
-      <c r="BG9" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="BH9" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="BI9" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="BJ9" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="BK9" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL9" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM9" s="89"/>
-      <c r="BN9" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="BO9" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="BP9" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BQ9" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="BR9" s="64"/>
-      <c r="BS9" s="64"/>
-      <c r="BT9" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU9" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV9" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="BW9" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX9" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="BY9" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BZ9" s="64"/>
-      <c r="CA9" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="CB9" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="CC9" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="CD9" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="CE9" s="121" t="s">
-        <v>242</v>
-      </c>
-      <c r="CF9" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="CG9" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="CH9" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI9" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="CJ9" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="CK9" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="CL9" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="CM9" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN9" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CO9" s="78"/>
-      <c r="CP9" s="111"/>
-      <c r="CQ9" s="111"/>
-      <c r="CR9" s="64"/>
-      <c r="CS9" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CT9" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CU9" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CV9" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CW9" s="132" t="s">
-        <v>223</v>
-      </c>
-      <c r="CX9" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="CY9" s="132" t="s">
-        <v>223</v>
-      </c>
-      <c r="CZ9" s="132" t="s">
-        <v>226</v>
-      </c>
-      <c r="DA9" s="141" t="s">
-        <v>252</v>
-      </c>
-      <c r="DB9" s="139" t="s">
-        <v>216</v>
-      </c>
-      <c r="DC9" s="134"/>
-      <c r="DD9" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="DE9" s="78"/>
     </row>
-    <row r="10" spans="1:109" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="S10" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="T10" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="U10" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="V10" s="70"/>
-      <c r="W10" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="X10" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB10" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC10" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH10" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI10" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ10" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK10" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="AL10" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS10" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT10" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU10" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX10" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY10" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="AZ10" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="BA10" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD10" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="BE10" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="BH10" s="94" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI10" s="94" t="s">
+    <row r="14" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="BJ10" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="BK10" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL10" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM10" s="64"/>
-      <c r="BN10" s="94" t="s">
-        <v>283</v>
-      </c>
-      <c r="BO10" s="94" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP10" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="BQ10" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BR10" s="64"/>
-      <c r="BS10" s="64"/>
-      <c r="BT10" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU10" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV10" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="BW10" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="BX10" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="BY10" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BZ10" s="64"/>
-      <c r="CA10" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="CB10" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="CC10" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="CD10" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="CE10" s="122" t="s">
-        <v>279</v>
-      </c>
-      <c r="CF10" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="CG10" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH10" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI10" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="CJ10" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="CK10" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="CL10" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="CM10" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN10" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="CO10" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="CP10" s="78"/>
-      <c r="CQ10" s="78"/>
-      <c r="CR10" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CS10" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CT10" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CU10" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CV10" s="70"/>
-      <c r="CW10" s="70"/>
-      <c r="CX10" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="CY10" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="CZ10" s="132" t="s">
-        <v>267</v>
-      </c>
-      <c r="DA10" s="139" t="s">
-        <v>288</v>
-      </c>
-      <c r="DB10" s="140"/>
-      <c r="DC10" s="134"/>
-      <c r="DD10" s="78"/>
-      <c r="DE10" s="78"/>
-    </row>
-    <row r="11" spans="1:109" ht="144" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="N11" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="R11" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="100" t="s">
-        <v>292</v>
-      </c>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z11" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA11" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH11" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI11" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ11" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="AS11" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX11" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY11" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ11" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA11" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="BB11" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="BE11" s="70"/>
-      <c r="BF11" s="84"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="94" t="s">
-        <v>300</v>
-      </c>
-      <c r="BI11" s="94" t="s">
-        <v>301</v>
-      </c>
-      <c r="BJ11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL11" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="94" t="s">
-        <v>300</v>
-      </c>
-      <c r="BO11" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="BP11" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BQ11" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BR11" s="64"/>
-      <c r="BS11" s="64"/>
-      <c r="BT11" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU11" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV11" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="BW11" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX11" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BY11" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="CB11" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="CC11" s="89"/>
-      <c r="CD11" s="104" t="s">
-        <v>298</v>
-      </c>
-      <c r="CE11" s="105" t="s">
-        <v>299</v>
-      </c>
-      <c r="CF11" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="CG11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI11" s="104" t="s">
-        <v>298</v>
-      </c>
-      <c r="CJ11" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK11" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN11" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="CO11" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="CP11" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="CQ11" s="78"/>
-      <c r="CR11" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CS11" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CT11" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CU11" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CV11" s="136"/>
-      <c r="CW11" s="136"/>
-      <c r="CX11" s="106" t="s">
-        <v>304</v>
-      </c>
-      <c r="CY11" s="133" t="s">
-        <v>166</v>
-      </c>
-      <c r="CZ11" s="147" t="s">
-        <v>294</v>
-      </c>
-      <c r="DA11" s="142" t="s">
-        <v>268</v>
-      </c>
-      <c r="DB11" s="143"/>
-      <c r="DC11" s="135" t="s">
-        <v>305</v>
-      </c>
-      <c r="DD11" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="DE11" s="78"/>
-    </row>
-    <row r="12" spans="1:109" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="N12" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="O12" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q12" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="R12" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="S12" s="79" t="s">
-        <v>312</v>
-      </c>
-      <c r="T12" s="111"/>
-      <c r="U12" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="V12" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="W12" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB12" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC12" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI12" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ12" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK12" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="AS12" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT12" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="70"/>
-      <c r="AW12" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="AX12" s="65" t="s">
-        <v>320</v>
-      </c>
-      <c r="AY12" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ12" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA12" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="BD12" s="75" t="s">
-        <v>321</v>
-      </c>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="70"/>
-      <c r="BG12" s="94" t="s">
-        <v>321</v>
-      </c>
-      <c r="CN12" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="CO12" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="CP12" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="CQ12" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="CR12" s="64"/>
-      <c r="CS12" s="64"/>
-      <c r="CT12" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="CU12" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="CV12" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="CW12" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX12" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="CY12" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="CZ12" s="147" t="s">
-        <v>315</v>
-      </c>
-      <c r="DA12" s="144" t="s">
-        <v>323</v>
-      </c>
-      <c r="DB12" s="145"/>
-      <c r="DC12" s="91"/>
-      <c r="DD12" s="64"/>
-      <c r="DE12" s="64"/>
-    </row>
-    <row r="13" spans="1:109" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q13" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK13" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="83"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="70"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="AY13" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="AZ13" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA13" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD13" s="70"/>
-      <c r="BE13" s="70"/>
-      <c r="BF13" s="70"/>
-      <c r="BG13" s="70"/>
-      <c r="CN13" s="64"/>
-      <c r="CO13" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CP13" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CQ13" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CR13" s="64"/>
-      <c r="CS13" s="64"/>
-      <c r="CT13" s="64"/>
-      <c r="CU13" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="CV13" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="CW13" s="132" t="s">
-        <v>223</v>
-      </c>
-      <c r="CX13" s="64"/>
-      <c r="CZ13" s="64"/>
-      <c r="DA13" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="DB13" s="137"/>
-    </row>
-    <row r="14" spans="1:109" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
-        <v>329</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="108"/>
-      <c r="AN14" s="108"/>
-      <c r="AO14" s="108"/>
-      <c r="AP14" s="108"/>
-      <c r="AQ14" s="108"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY14" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ14" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA14" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="BD14" s="70"/>
-      <c r="BE14" s="70"/>
-      <c r="BF14" s="70"/>
-      <c r="BG14" s="70"/>
-      <c r="CN14" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CO14" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CP14" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CQ14" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="CR14" s="70"/>
-      <c r="CS14" s="70"/>
-      <c r="CT14" s="70"/>
-      <c r="CU14" s="70"/>
-      <c r="CV14" s="70"/>
-      <c r="CW14" s="70"/>
-      <c r="CX14" s="64"/>
-    </row>
-    <row r="15" spans="1:109" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="I15" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="64"/>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="64"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="64"/>
-      <c r="AX15" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="AY15" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ15" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA15" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="64"/>
-      <c r="BD15" s="70"/>
-      <c r="BE15" s="70"/>
-      <c r="BF15" s="70"/>
-      <c r="BG15" s="70"/>
-      <c r="CN15" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CO15" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CP15" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CQ15" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="CR15" s="111"/>
-      <c r="CS15" s="111"/>
-      <c r="CT15" s="111"/>
-      <c r="CU15" s="111"/>
-      <c r="CV15" s="111"/>
-      <c r="CW15" s="111"/>
-      <c r="CX15" s="64"/>
-    </row>
-    <row r="16" spans="1:109" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
-        <v>334</v>
-      </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="N16" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="CN16" s="64"/>
-      <c r="CO16" s="64"/>
-      <c r="CP16" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="CQ16" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="CR16" s="64"/>
-      <c r="CS16" s="64"/>
-      <c r="CT16" s="70"/>
-      <c r="CU16" s="70"/>
-      <c r="CV16" s="128"/>
-      <c r="CW16" s="128"/>
-    </row>
-    <row r="17" spans="1:101" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="M17" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="N17" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="O17" s="70"/>
-      <c r="P17" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q17" s="70"/>
-      <c r="CN17" s="64"/>
-      <c r="CO17" s="64"/>
-      <c r="CP17" s="64"/>
-      <c r="CQ17" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="CR17" s="64"/>
-      <c r="CS17" s="64"/>
-      <c r="CT17" s="64"/>
-      <c r="CU17" s="69"/>
-      <c r="CV17" s="128"/>
-      <c r="CW17" s="128"/>
-    </row>
-    <row r="18" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q18" s="57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q19" s="72" t="s">
-        <v>157</v>
+      <c r="Q14" s="69" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="DC5:DE5"/>
-    <mergeCell ref="CI5:CM5"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="CN5:CQ5"/>
-    <mergeCell ref="CR5:CU5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AM5:BF5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="W2:AL2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="W3:AL4"/>
-    <mergeCell ref="B4:V4"/>
-    <mergeCell ref="B5:AL5"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AW6"/>
-    <mergeCell ref="AX6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BH6:BM6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CC6"/>
-    <mergeCell ref="CI6:CM6"/>
-    <mergeCell ref="BH5:BM5"/>
-    <mergeCell ref="BV5:CC5"/>
-    <mergeCell ref="CD5:CH5"/>
-    <mergeCell ref="CD6:CH6"/>
-    <mergeCell ref="BN5:BU5"/>
-    <mergeCell ref="BN6:BU6"/>
+  <mergeCells count="22">
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BF1:BK1"/>
+    <mergeCell ref="BT1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="CG1:CK1"/>
+    <mergeCell ref="CB1:CF1"/>
+    <mergeCell ref="BL1:BS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="10" fitToHeight="6" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
